--- a/exampleTankLevels.xlsx
+++ b/exampleTankLevels.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://luky-my.sharepoint.com/personal/apgi227_uky_edu/Documents/Documents/GitHub/FinalProject_CE610/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://luky-my.sharepoint.com/personal/apgi227_uky_edu/Documents/Documents/GillDataTransfer/GitHub/Box-Complex-Small-Systems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="8_{632742B8-1F88-4CA4-8476-678D9C8BD1C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A3810B8-DAFE-4A52-A52F-D1E3453FEC46}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="8_{632742B8-1F88-4CA4-8476-678D9C8BD1C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E2CA719-E892-49E2-88DB-73B7EFBFE94F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14F358C8-35D5-4448-9456-31D5AE1AA737}"/>
   </bookViews>
@@ -36,15 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Sawmill</t>
   </si>
   <si>
     <t>TunnelHill</t>
-  </si>
-  <si>
-    <t>Colley</t>
   </si>
 </sst>
 </file>
@@ -80,9 +77,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BA650F-8918-4965-8127-2357B196C2D2}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,279 +407,204 @@
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1396.62</v>
       </c>
       <c r="B2">
         <v>1390.98</v>
       </c>
-      <c r="C2">
-        <v>1479.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1395.47</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>1386.8</v>
       </c>
-      <c r="C3" s="1">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1395.62</v>
       </c>
       <c r="B4">
         <v>1387.48</v>
       </c>
-      <c r="C4">
-        <v>1480.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1396.19</v>
       </c>
       <c r="B5">
         <v>1389.14</v>
       </c>
-      <c r="C5">
-        <v>1481</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1396.52</v>
       </c>
       <c r="B6">
         <v>1391.22</v>
       </c>
-      <c r="C6">
-        <v>1481.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1396.5</v>
       </c>
       <c r="B7">
         <v>1394.58</v>
       </c>
-      <c r="C7">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1396.27</v>
       </c>
       <c r="B8">
         <v>1395.06</v>
       </c>
-      <c r="C8">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1395.28</v>
       </c>
       <c r="B9">
         <v>1393.97</v>
       </c>
-      <c r="C9">
-        <v>1481.6666666666667</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1395.27</v>
       </c>
       <c r="B10">
         <v>1392.82</v>
       </c>
-      <c r="C10">
-        <v>1481.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1394.05</v>
       </c>
       <c r="B11">
         <v>1391.6833333333334</v>
       </c>
-      <c r="C11">
-        <v>1481.3333333333333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1392.83</v>
       </c>
       <c r="B12">
         <v>1390.5466666666666</v>
       </c>
-      <c r="C12">
-        <v>1481.1666666666667</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1391.61</v>
       </c>
       <c r="B13">
         <v>1389.41</v>
       </c>
-      <c r="C13">
-        <v>1481</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1390.39</v>
       </c>
       <c r="B14">
         <v>1388.2733333333333</v>
       </c>
-      <c r="C14">
-        <v>1480.8333333333333</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1389.17</v>
       </c>
       <c r="B15">
         <v>1387.1366666666665</v>
       </c>
-      <c r="C15">
-        <v>1480.6666666666667</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1388.5525</v>
       </c>
       <c r="B16">
         <v>1387.2149999999999</v>
       </c>
-      <c r="C16">
-        <v>1480.3333333333333</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1389.155</v>
       </c>
       <c r="B17">
         <v>1388.43</v>
       </c>
-      <c r="C17">
-        <v>1480.1666666666667</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1389.7574999999999</v>
       </c>
       <c r="B18">
         <v>1389.645</v>
       </c>
-      <c r="C18">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1390.36</v>
       </c>
       <c r="B19">
         <v>1390.86</v>
       </c>
-      <c r="C19">
-        <v>1479.8333333333333</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1390.9625000000001</v>
       </c>
       <c r="B20">
         <v>1392.075</v>
       </c>
-      <c r="C20">
-        <v>1479.6666666666667</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1391.5650000000001</v>
       </c>
       <c r="B21">
         <v>1393.29</v>
       </c>
-      <c r="C21">
-        <v>1479.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1392.1675</v>
       </c>
       <c r="B22">
         <v>1394.5049999999999</v>
       </c>
-      <c r="C22">
-        <v>1479.3333333333333</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1393.48</v>
       </c>
       <c r="B23">
         <v>1395.52</v>
       </c>
-      <c r="C23">
-        <v>1479.25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1393.78</v>
       </c>
       <c r="B24">
         <v>1395.48</v>
       </c>
-      <c r="C24">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1394.32</v>
       </c>
       <c r="B25">
         <v>1395.45</v>
-      </c>
-      <c r="C25">
-        <v>1480.5</v>
       </c>
     </row>
   </sheetData>
